--- a/result.xlsx
+++ b/result.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0A57B8-B87D-41C5-8BCE-407BE8ECDBD1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="5_{7FE598E3-8152-402B-916C-15C0504E81D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{EB843DB8-05D2-4C2B-BAF4-CCA39D8534AC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tfidf" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="word2vec1" sheetId="3" r:id="rId2"/>
+    <sheet name="word2vec2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="13">
   <si>
     <t>min_df</t>
   </si>
@@ -1037,7 +1038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220A4016-E5C1-47FE-A6E1-5E2C502C1979}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53CA9E19-7B57-4315-9EB0-39C1C7D73BBC}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1086,6 +1087,324 @@
         <v>5</v>
       </c>
       <c r="G2" s="1">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.124</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.312</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.40500000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.439</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.41899999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.51800000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="E13" s="1">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="E14" s="1">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.53600000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="E15" s="1">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.54200000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220A4016-E5C1-47FE-A6E1-5E2C502C1979}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
